--- a/src/main/resources/template/Invoice.xlsx
+++ b/src/main/resources/template/Invoice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17010" windowHeight="4245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17010" windowHeight="3315"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
@@ -187,9 +187,6 @@
     <t>Shipping</t>
   </si>
   <si>
-    <t>16-715 28 305B Punggol Rd</t>
-  </si>
-  <si>
     <t>Singapore 822305</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>Payment Methods</t>
+  </si>
+  <si>
+    <t>#16-715 305B Punggol Rd</t>
   </si>
 </sst>
 </file>
@@ -862,25 +862,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -889,6 +874,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -903,10 +891,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1267,8 +1267,8 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C36"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1282,7 +1282,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="70"/>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1315,12 +1315,12 @@
       </c>
       <c r="F3" s="6">
         <f ca="1">TODAY()</f>
-        <v>43878</v>
+        <v>43888</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F6" s="9">
         <f ca="1">F3+30</f>
-        <v>43908</v>
+        <v>43918</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1424,10 +1424,10 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="11" t="s">
         <v>9</v>
       </c>
@@ -1442,7 +1442,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="73"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="70"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -1453,7 +1453,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="73"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="70"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -1464,8 +1464,8 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -1475,7 +1475,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="73"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="70"/>
       <c r="C19" s="18"/>
       <c r="D19" s="16"/>
@@ -1486,7 +1486,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="73"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="70"/>
       <c r="C20" s="18"/>
       <c r="D20" s="16"/>
@@ -1497,7 +1497,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="73"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="70"/>
       <c r="C21" s="18"/>
       <c r="D21" s="16"/>
@@ -1508,7 +1508,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="73"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="70"/>
       <c r="C22" s="20"/>
       <c r="D22" s="19"/>
@@ -1519,7 +1519,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="73"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="70"/>
       <c r="C23" s="20"/>
       <c r="D23" s="19"/>
@@ -1530,7 +1530,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="73"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="70"/>
       <c r="C24" s="20"/>
       <c r="D24" s="19"/>
@@ -1541,7 +1541,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="73"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="70"/>
       <c r="C25" s="20"/>
       <c r="D25" s="19"/>
@@ -1552,7 +1552,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="73"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="70"/>
       <c r="C26" s="20"/>
       <c r="D26" s="19"/>
@@ -1563,7 +1563,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="73"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="70"/>
       <c r="C27" s="20"/>
       <c r="D27" s="19"/>
@@ -1574,7 +1574,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="73"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="70"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
@@ -1585,7 +1585,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="73"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="70"/>
       <c r="C29" s="20"/>
       <c r="D29" s="19"/>
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="73"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="70"/>
       <c r="C30" s="20"/>
       <c r="D30" s="19"/>
@@ -1607,7 +1607,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="73"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="70"/>
       <c r="C31" s="20"/>
       <c r="D31" s="19"/>
@@ -1633,21 +1633,21 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A33" s="81" t="s">
-        <v>60</v>
+      <c r="A33" s="75" t="s">
+        <v>59</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="83"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="25"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="86"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="1"/>
       <c r="E34" s="26" t="s">
         <v>55</v>
@@ -1657,11 +1657,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="81" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="70"/>
-      <c r="C35" s="76"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="1"/>
       <c r="E35" s="28" t="s">
         <v>17</v>
@@ -1672,33 +1672,33 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A36" s="88"/>
+      <c r="A36" s="83"/>
       <c r="B36" s="70"/>
-      <c r="C36" s="76"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="85" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="70"/>
-      <c r="C37" s="76"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="77" t="s">
+      <c r="E37" s="69" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="70"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="84" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="70"/>
-      <c r="C38" s="76"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="78" t="s">
+      <c r="E38" s="71" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="70"/>
@@ -1742,7 +1742,7 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="72" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="70"/>
@@ -1752,7 +1752,7 @@
       <c r="F43" s="70"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="73" t="s">
         <v>26</v>
       </c>
       <c r="B44" s="70"/>
@@ -9411,6 +9411,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A37:C37"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A43:F43"/>
@@ -9423,21 +9438,6 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C36"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:A31 C16:F31">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
